--- a/applications/us_states/Atlanta_projections.xlsx
+++ b/applications/us_states/Atlanta_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>37070</v>
+        <v>60659</v>
       </c>
       <c r="B4">
-        <v>56798</v>
+        <v>62067</v>
       </c>
       <c r="C4">
-        <v>126973</v>
+        <v>108823</v>
       </c>
       <c r="D4">
-        <v>2.322819239610366</v>
+        <v>3.800945607368357</v>
       </c>
       <c r="E4">
-        <v>3.559013989236832</v>
+        <v>3.889171382641391</v>
       </c>
       <c r="F4">
-        <v>7.956172843567493</v>
+        <v>6.818887459188531</v>
       </c>
       <c r="G4">
-        <v>0.07960997690652738</v>
+        <v>0.1805871337619928</v>
       </c>
       <c r="H4">
-        <v>0.07857608110254651</v>
+        <v>0.1730052311994664</v>
       </c>
       <c r="I4">
-        <v>0.1964402027563662</v>
+        <v>0.3129257966715449</v>
       </c>
       <c r="J4">
-        <v>0.7342418027490289</v>
+        <v>0.5855426693319005</v>
       </c>
       <c r="K4">
-        <v>0.5075707125399561</v>
+        <v>0.4932580081387765</v>
       </c>
       <c r="L4">
-        <v>0.7110942786660566</v>
+        <v>0.6080512784221153</v>
       </c>
       <c r="M4">
-        <v>1226</v>
+        <v>4983</v>
       </c>
       <c r="N4">
-        <v>6583</v>
+        <v>8068</v>
       </c>
       <c r="O4">
-        <v>8101</v>
+        <v>11324</v>
       </c>
       <c r="P4">
-        <v>0.08042747591432621</v>
+        <v>0.3267591622348859</v>
       </c>
       <c r="Q4">
-        <v>0.431711608383177</v>
+        <v>0.5290901666650966</v>
       </c>
       <c r="R4">
-        <v>0.5312541346269171</v>
+        <v>0.7426016722313796</v>
       </c>
       <c r="S4">
-        <v>0.0003606613269700727</v>
+        <v>0.01262314644395254</v>
       </c>
       <c r="T4">
-        <v>0.003606613269700727</v>
+        <v>0.02055769563729415</v>
       </c>
       <c r="U4">
-        <v>0.01298380777092262</v>
+        <v>0.03931208463973793</v>
       </c>
       <c r="V4">
-        <v>0.7352999643953729</v>
+        <v>0.5913790111453725</v>
       </c>
       <c r="W4">
-        <v>0.5152784057586335</v>
+        <v>0.5040467108533169</v>
       </c>
       <c r="X4">
-        <v>0.7197324781083168</v>
+        <v>0.6198668453013488</v>
       </c>
     </row>
   </sheetData>

--- a/applications/us_states/Atlanta_projections.xlsx
+++ b/applications/us_states/Atlanta_projections.xlsx
@@ -520,76 +520,76 @@
     </row>
     <row r="4" spans="1:24">
       <c r="A4">
-        <v>60659</v>
+        <v>37070</v>
       </c>
       <c r="B4">
-        <v>62067</v>
+        <v>56798</v>
       </c>
       <c r="C4">
-        <v>108823</v>
+        <v>126973</v>
       </c>
       <c r="D4">
-        <v>3.800945607368357</v>
+        <v>2.322819239610366</v>
       </c>
       <c r="E4">
-        <v>3.889171382641391</v>
+        <v>3.559013989236832</v>
       </c>
       <c r="F4">
-        <v>6.818887459188531</v>
+        <v>7.956172843567493</v>
       </c>
       <c r="G4">
-        <v>0.1805871337619928</v>
+        <v>0.07960997690652738</v>
       </c>
       <c r="H4">
-        <v>0.1730052311994664</v>
+        <v>0.07857608110254651</v>
       </c>
       <c r="I4">
-        <v>0.3129257966715449</v>
+        <v>0.1964402027563662</v>
       </c>
       <c r="J4">
-        <v>0.5855426693319005</v>
+        <v>0.7342418027490289</v>
       </c>
       <c r="K4">
-        <v>0.4932580081387765</v>
+        <v>0.5075707125399561</v>
       </c>
       <c r="L4">
-        <v>0.6080512784221153</v>
+        <v>0.7110942786660566</v>
       </c>
       <c r="M4">
-        <v>4983</v>
+        <v>1226</v>
       </c>
       <c r="N4">
-        <v>8068</v>
+        <v>6583</v>
       </c>
       <c r="O4">
-        <v>11324</v>
+        <v>8101</v>
       </c>
       <c r="P4">
-        <v>0.3267591622348859</v>
+        <v>0.08042747591432621</v>
       </c>
       <c r="Q4">
-        <v>0.5290901666650966</v>
+        <v>0.431711608383177</v>
       </c>
       <c r="R4">
-        <v>0.7426016722313796</v>
+        <v>0.5312541346269171</v>
       </c>
       <c r="S4">
-        <v>0.01262314644395254</v>
+        <v>0.0003606613269700727</v>
       </c>
       <c r="T4">
-        <v>0.02055769563729415</v>
+        <v>0.003606613269700727</v>
       </c>
       <c r="U4">
-        <v>0.03931208463973793</v>
+        <v>0.01298380777092262</v>
       </c>
       <c r="V4">
-        <v>0.5913790111453725</v>
+        <v>0.7352999643953729</v>
       </c>
       <c r="W4">
-        <v>0.5040467108533169</v>
+        <v>0.5152784057586335</v>
       </c>
       <c r="X4">
-        <v>0.6198668453013488</v>
+        <v>0.7197324781083168</v>
       </c>
     </row>
   </sheetData>
